--- a/BLACK_SUNRISE_HSV/135_Degree_GLCM/R_resmat.xlsx
+++ b/BLACK_SUNRISE_HSV/135_Degree_GLCM/R_resmat.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_HSV\135_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE1CCE-08DD-4E62-B30D-A267791BCBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,16 +51,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,22 +336,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B308" sqref="B308"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.046875" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.0030679769031384209</v>
+        <v>3.0679769031384209E-3</v>
       </c>
       <c r="B1">
         <v>0.68495096468607519</v>
@@ -361,9 +364,9 @@
         <v>0.99846601154843084</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.030362885510939283</v>
+        <v>3.0362885510939283E-2</v>
       </c>
       <c r="B2">
         <v>0.93287952895070048</v>
@@ -375,9 +378,9 @@
         <v>0.98481855724453027</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.050350313438339567</v>
+        <v>5.0350313438339567E-2</v>
       </c>
       <c r="B3">
         <v>0.89265783998561421</v>
@@ -389,9 +392,9 @@
         <v>0.97482484328083019</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.048508200207663534</v>
+        <v>4.8508200207663534E-2</v>
       </c>
       <c r="B4">
         <v>0.89698081261120866</v>
@@ -403,9 +406,9 @@
         <v>0.97574589989616833</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.042557714382891881</v>
+        <v>4.2557714382891881E-2</v>
       </c>
       <c r="B5">
         <v>0.90782045390535704</v>
@@ -417,9 +420,9 @@
         <v>0.97872114280855405</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.052987145865855151</v>
+        <v>5.2987145865855151E-2</v>
       </c>
       <c r="B6">
         <v>0.88765598816626512</v>
@@ -431,9 +434,9 @@
         <v>0.97350642706707247</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.031372867398893542</v>
+        <v>3.1372867398893542E-2</v>
       </c>
       <c r="B7">
         <v>0.913667487898143</v>
@@ -445,9 +448,9 @@
         <v>0.98431356630055322</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.035136639470004477</v>
+        <v>3.5136639470004477E-2</v>
       </c>
       <c r="B8">
         <v>0.92820681140315686</v>
@@ -459,9 +462,9 @@
         <v>0.98243168026499772</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.068361242196094518</v>
+        <v>6.8361242196094518E-2</v>
       </c>
       <c r="B9">
         <v>0.8523310702924245</v>
@@ -473,9 +476,9 @@
         <v>0.96581937890195269</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.038589067569820876</v>
+        <v>3.8589067569820876E-2</v>
       </c>
       <c r="B10">
         <v>0.89154415749833615</v>
@@ -487,9 +490,9 @@
         <v>0.98070546621508969</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.056837281846848373</v>
+        <v>5.6837281846848373E-2</v>
       </c>
       <c r="B11">
         <v>0.88218580847104744</v>
@@ -501,9 +504,9 @@
         <v>0.97158135907657583</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.056071181380765348</v>
+        <v>5.6071181380765348E-2</v>
       </c>
       <c r="B12">
         <v>0.87653275640186357</v>
@@ -515,9 +518,9 @@
         <v>0.97196440930961725</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.037956316751659773</v>
+        <v>3.7956316751659773E-2</v>
       </c>
       <c r="B13">
         <v>0.92323824292758316</v>
@@ -529,9 +532,9 @@
         <v>0.98102184162417028</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.0439100035367413</v>
+        <v>4.39100035367413E-2</v>
       </c>
       <c r="B14">
         <v>0.90954237672527494</v>
@@ -543,9 +546,9 @@
         <v>0.97804499823162949</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.052321171666023361</v>
+        <v>5.2321171666023361E-2</v>
       </c>
       <c r="B15">
         <v>0.89154564944375692</v>
@@ -557,9 +560,9 @@
         <v>0.97383941416698838</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.032478576077795009</v>
+        <v>3.2478576077795009E-2</v>
       </c>
       <c r="B16">
         <v>0.91654932891583174</v>
@@ -571,9 +574,9 @@
         <v>0.9837607119611026</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.036577348022000931</v>
+        <v>3.6577348022000931E-2</v>
       </c>
       <c r="B17">
         <v>0.92383925946413803</v>
@@ -585,9 +588,9 @@
         <v>0.98171132598899946</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.039647724528996509</v>
+        <v>3.9647724528996509E-2</v>
       </c>
       <c r="B18">
         <v>0.91006627454467237</v>
@@ -599,9 +602,9 @@
         <v>0.98017613773550161</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.047920939259218476</v>
+        <v>4.7920939259218476E-2</v>
       </c>
       <c r="B19">
         <v>0.88550382559234952</v>
@@ -613,9 +616,9 @@
         <v>0.97603953037039082</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.025564956231915906</v>
+        <v>2.5564956231915906E-2</v>
       </c>
       <c r="B20">
         <v>0.92117266986183377</v>
@@ -627,9 +630,9 @@
         <v>0.9872175218840421</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.059154064552277001</v>
+        <v>5.9154064552277001E-2</v>
       </c>
       <c r="B21">
         <v>0.85886932510854741</v>
@@ -641,9 +644,9 @@
         <v>0.9704229677238615</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.0075244425198539603</v>
+        <v>7.5244425198539603E-3</v>
       </c>
       <c r="B22">
         <v>0.56789169829728114</v>
@@ -655,9 +658,9 @@
         <v>0.99623777874007302</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.036726948695100292</v>
+        <v>3.6726948695100292E-2</v>
       </c>
       <c r="B23">
         <v>0.80124867226765017</v>
@@ -669,10 +672,13 @@
         <v>0.98163652565244974</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>1</v>
       </c>
@@ -680,9 +686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.040987696080503996</v>
+        <v>4.0987696080503996E-2</v>
       </c>
       <c r="B25">
         <v>0.86836347020667193</v>
@@ -694,9 +700,9 @@
         <v>0.97950615195974799</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>0.049538145740677386</v>
+        <v>4.9538145740677386E-2</v>
       </c>
       <c r="B26">
         <v>0.84009152585224534</v>
@@ -708,9 +714,9 @@
         <v>0.97523092712966131</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.032440382528050558</v>
+        <v>3.2440382528050558E-2</v>
       </c>
       <c r="B27">
         <v>0.84006646157269838</v>
@@ -722,9 +728,9 @@
         <v>0.98377980873597481</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.0011175100390128185</v>
+        <v>1.1175100390128185E-3</v>
       </c>
       <c r="B28">
         <v>0.95936563722698476</v>
@@ -736,9 +742,9 @@
         <v>0.99991390028152116</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.0046810059182930798</v>
+        <v>4.6810059182930798E-3</v>
       </c>
       <c r="B29">
         <v>0.60192018326296937</v>
@@ -750,9 +756,9 @@
         <v>0.99765949704085355</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.042242458200021996</v>
+        <v>4.2242458200021996E-2</v>
       </c>
       <c r="B30">
         <v>0.78028690050362048</v>
@@ -764,9 +770,9 @@
         <v>0.97924990443475113</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0.037818001141905762</v>
+        <v>3.7818001141905762E-2</v>
       </c>
       <c r="B31">
         <v>0.84139359198722619</v>
@@ -778,9 +784,9 @@
         <v>0.98201770825615298</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.0040354449005160853</v>
+        <v>4.0354449005160853E-3</v>
       </c>
       <c r="B32">
         <v>0.52768495864096487</v>
@@ -792,9 +798,9 @@
         <v>0.99798227754974189</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.030730265934993669</v>
+        <v>3.0730265934993669E-2</v>
       </c>
       <c r="B33">
         <v>0.76799006218993138</v>
@@ -806,9 +812,9 @@
         <v>0.98463486703250314</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.041535962070973875</v>
+        <v>4.1535962070973875E-2</v>
       </c>
       <c r="B34">
         <v>0.90665399200063024</v>
@@ -820,9 +826,9 @@
         <v>0.97923201896451317</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>0.058091578422457546</v>
+        <v>5.8091578422457546E-2</v>
       </c>
       <c r="B35">
         <v>0.87038806032006377</v>
@@ -834,9 +840,9 @@
         <v>0.97095421078877131</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.035048943870362906</v>
+        <v>3.5048943870362906E-2</v>
       </c>
       <c r="B36">
         <v>0.82615363902963923</v>
@@ -848,9 +854,9 @@
         <v>0.98247552806481853</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.023686416676107398</v>
+        <v>2.3686416676107398E-2</v>
       </c>
       <c r="B37">
         <v>0.80400363503502525</v>
@@ -862,9 +868,9 @@
         <v>0.98815679166194625</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.026893575150390231</v>
+        <v>2.6893575150390231E-2</v>
       </c>
       <c r="B38">
         <v>0.82222692944207598</v>
@@ -876,9 +882,9 @@
         <v>0.98750419303620551</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.053811095603167144</v>
+        <v>5.3811095603167144E-2</v>
       </c>
       <c r="B39">
         <v>0.80041842203059521</v>
@@ -890,9 +896,9 @@
         <v>0.97309445219841639</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.05774387560510489</v>
+        <v>5.774387560510489E-2</v>
       </c>
       <c r="B40">
         <v>0.82896123994503279</v>
@@ -904,10 +910,13 @@
         <v>0.97182118233827197</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>1</v>
       </c>
@@ -915,9 +924,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.063787706131216676</v>
+        <v>6.3787706131216676E-2</v>
       </c>
       <c r="B42">
         <v>0.66768581992464948</v>
@@ -929,10 +938,13 @@
         <v>0.96810614693439168</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>1</v>
       </c>
@@ -940,9 +952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.022080486374504202</v>
+        <v>2.2080486374504202E-2</v>
       </c>
       <c r="B44">
         <v>0.63213184225674413</v>
@@ -954,9 +966,9 @@
         <v>0.98945164883594228</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.022692470412927331</v>
+        <v>2.2692470412927331E-2</v>
       </c>
       <c r="B45">
         <v>0.66932224365104065</v>
@@ -968,9 +980,9 @@
         <v>0.98865376479353628</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.033200977524406997</v>
+        <v>3.3200977524406997E-2</v>
       </c>
       <c r="B46">
         <v>0.70727535091185323</v>
@@ -982,9 +994,9 @@
         <v>0.98339951123779645</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.039060914191608738</v>
+        <v>3.9060914191608738E-2</v>
       </c>
       <c r="B47">
         <v>0.67771973685794751</v>
@@ -996,9 +1008,9 @@
         <v>0.98046954290419563</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.018853931282229563</v>
+        <v>1.8853931282229563E-2</v>
       </c>
       <c r="B48">
         <v>0.72562941379171653</v>
@@ -1010,9 +1022,9 @@
         <v>0.99057303435888522</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.016673845857885471</v>
+        <v>1.6673845857885471E-2</v>
       </c>
       <c r="B49">
         <v>0.61951559506806164</v>
@@ -1024,9 +1036,9 @@
         <v>0.99166307707105728</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.014552769026221652</v>
+        <v>1.4552769026221652E-2</v>
       </c>
       <c r="B50">
         <v>0.61073583501835849</v>
@@ -1038,9 +1050,9 @@
         <v>0.99272361548688903</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.015951703720903234</v>
+        <v>1.5951703720903234E-2</v>
       </c>
       <c r="B51">
         <v>0.6584973770699738</v>
@@ -1052,9 +1064,9 @@
         <v>0.99202414813954853</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>0.024389145197436832</v>
+        <v>2.4389145197436832E-2</v>
       </c>
       <c r="B52">
         <v>0.66986518470184653</v>
@@ -1066,9 +1078,9 @@
         <v>0.98798279959007307</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0.026092272423345116</v>
+        <v>2.6092272423345116E-2</v>
       </c>
       <c r="B53">
         <v>0.65952437708227751</v>
@@ -1080,10 +1092,13 @@
         <v>0.98695386378832739</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -1091,10 +1106,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
       <c r="C55">
         <v>1</v>
       </c>
@@ -1102,10 +1120,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -1113,9 +1134,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>0.021633510924287599</v>
+        <v>2.1633510924287599E-2</v>
       </c>
       <c r="B57">
         <v>0.71238249268306175</v>
@@ -1127,9 +1148,9 @@
         <v>0.98918324453785633</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0.03049349966796993</v>
+        <v>3.049349966796993E-2</v>
       </c>
       <c r="B58">
         <v>0.69548663913110698</v>
@@ -1141,9 +1162,9 @@
         <v>0.98475325016601511</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.03126503612033607</v>
+        <v>3.126503612033607E-2</v>
       </c>
       <c r="B59">
         <v>0.71402428520654493</v>
@@ -1155,9 +1176,9 @@
         <v>0.98436748193983192</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.027862175743396691</v>
+        <v>2.7862175743396691E-2</v>
       </c>
       <c r="B60">
         <v>0.66555127177234052</v>
@@ -1169,9 +1190,9 @@
         <v>0.98606891212830161</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.03732324513852045</v>
+        <v>3.732324513852045E-2</v>
       </c>
       <c r="B61">
         <v>0.88351491279452066</v>
@@ -1183,9 +1204,9 @@
         <v>0.98133837743073971</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.024875593773048002</v>
+        <v>2.4875593773048002E-2</v>
       </c>
       <c r="B62">
         <v>0.90721236565444618</v>
@@ -1197,9 +1218,9 @@
         <v>0.98756220311347598</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>0.025853323574874042</v>
+        <v>2.5853323574874042E-2</v>
       </c>
       <c r="B63">
         <v>0.90558695897010522</v>
@@ -1211,9 +1232,9 @@
         <v>0.98707333821256305</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.05168182063803102</v>
+        <v>5.168182063803102E-2</v>
       </c>
       <c r="B64">
         <v>0.85762022258309689</v>
@@ -1225,9 +1246,9 @@
         <v>0.97415908968098441</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.041041220427308858</v>
+        <v>4.1041220427308858E-2</v>
       </c>
       <c r="B65">
         <v>0.86645423992623261</v>
@@ -1239,9 +1260,9 @@
         <v>0.97947938978634552</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.037850864370240635</v>
+        <v>3.7850864370240635E-2</v>
       </c>
       <c r="B66">
         <v>0.88181326328914644</v>
@@ -1253,9 +1274,9 @@
         <v>0.98107456781487978</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.044938531472044976</v>
+        <v>4.4938531472044976E-2</v>
       </c>
       <c r="B67">
         <v>0.87283000465464788</v>
@@ -1267,9 +1288,9 @@
         <v>0.97753073426397752</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>0.034697462713888003</v>
+        <v>3.4697462713888003E-2</v>
       </c>
       <c r="B68">
         <v>0.89586234149080213</v>
@@ -1281,9 +1302,9 @@
         <v>0.98265126864305608</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>0.033868675151534952</v>
+        <v>3.3868675151534952E-2</v>
       </c>
       <c r="B69">
         <v>0.90084234371120608</v>
@@ -1295,9 +1316,9 @@
         <v>0.98306566242423254</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>0.039045677766874946</v>
+        <v>3.9045677766874946E-2</v>
       </c>
       <c r="B70">
         <v>0.87661541283138755</v>
@@ -1309,9 +1330,9 @@
         <v>0.98047716111656258</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>0.050124412864423248</v>
+        <v>5.0124412864423248E-2</v>
       </c>
       <c r="B71">
         <v>0.86937170970851863</v>
@@ -1323,9 +1344,9 @@
         <v>0.97493779356778831</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>0.045134323159315537</v>
+        <v>4.5134323159315537E-2</v>
       </c>
       <c r="B72">
         <v>0.86903897954256937</v>
@@ -1337,9 +1358,9 @@
         <v>0.97743283842034234</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.049968426543667462</v>
+        <v>4.9968426543667462E-2</v>
       </c>
       <c r="B73">
         <v>0.8670004182519444</v>
@@ -1351,9 +1372,9 @@
         <v>0.97501578672816624</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.038978389164682159</v>
+        <v>3.8978389164682159E-2</v>
       </c>
       <c r="B74">
         <v>0.88609826420979065</v>
@@ -1365,9 +1386,9 @@
         <v>0.980510805417659</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>0.040618035652400478</v>
+        <v>4.0618035652400478E-2</v>
       </c>
       <c r="B75">
         <v>0.86777869639715588</v>
@@ -1379,9 +1400,9 @@
         <v>0.97969098217379968</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.047678260969684409</v>
+        <v>4.7678260969684409E-2</v>
       </c>
       <c r="B76">
         <v>0.876935843628464</v>
@@ -1393,9 +1414,9 @@
         <v>0.97616086951515779</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.044019500465652173</v>
+        <v>4.4019500465652173E-2</v>
       </c>
       <c r="B77">
         <v>0.87742151339523411</v>
@@ -1407,9 +1428,9 @@
         <v>0.97799024976717386</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.029237317860787822</v>
+        <v>2.9237317860787822E-2</v>
       </c>
       <c r="B78">
         <v>0.90360027922568842</v>
@@ -1421,9 +1442,9 @@
         <v>0.98538134106960618</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.038364552853021219</v>
+        <v>3.8364552853021219E-2</v>
       </c>
       <c r="B79">
         <v>0.87091258308427011</v>
@@ -1435,9 +1456,9 @@
         <v>0.9808177235734894</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.028292358661505965</v>
+        <v>2.8292358661505965E-2</v>
       </c>
       <c r="B80">
         <v>0.90624721293060273</v>
@@ -1449,9 +1470,9 @@
         <v>0.98585382066924709</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.03732324513852045</v>
+        <v>3.732324513852045E-2</v>
       </c>
       <c r="B81">
         <v>0.88351491279452066</v>
@@ -1463,9 +1484,9 @@
         <v>0.98133837743073971</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>0.024875593773048002</v>
+        <v>2.4875593773048002E-2</v>
       </c>
       <c r="B82">
         <v>0.90721236565444618</v>
@@ -1477,9 +1498,9 @@
         <v>0.98756220311347598</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>0.025853323574874042</v>
+        <v>2.5853323574874042E-2</v>
       </c>
       <c r="B83">
         <v>0.90558695897010522</v>
@@ -1491,9 +1512,9 @@
         <v>0.98707333821256305</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>0.05168182063803102</v>
+        <v>5.168182063803102E-2</v>
       </c>
       <c r="B84">
         <v>0.85762022258309689</v>
@@ -1505,9 +1526,9 @@
         <v>0.97415908968098441</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>0.041041220427308858</v>
+        <v>4.1041220427308858E-2</v>
       </c>
       <c r="B85">
         <v>0.86645423992623261</v>
@@ -1519,9 +1540,9 @@
         <v>0.97947938978634552</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>0.037850864370240635</v>
+        <v>3.7850864370240635E-2</v>
       </c>
       <c r="B86">
         <v>0.88181326328914644</v>
@@ -1533,9 +1554,9 @@
         <v>0.98107456781487978</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>0.044938531472044976</v>
+        <v>4.4938531472044976E-2</v>
       </c>
       <c r="B87">
         <v>0.87283000465464788</v>
@@ -1547,9 +1568,9 @@
         <v>0.97753073426397752</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>0.034697462713888003</v>
+        <v>3.4697462713888003E-2</v>
       </c>
       <c r="B88">
         <v>0.89586234149080213</v>
@@ -1561,9 +1582,9 @@
         <v>0.98265126864305608</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>0.033868675151534952</v>
+        <v>3.3868675151534952E-2</v>
       </c>
       <c r="B89">
         <v>0.90084234371120608</v>
@@ -1575,9 +1596,9 @@
         <v>0.98306566242423254</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>0.039045677766874946</v>
+        <v>3.9045677766874946E-2</v>
       </c>
       <c r="B90">
         <v>0.87661541283138755</v>
@@ -1589,9 +1610,9 @@
         <v>0.98047716111656258</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>0.050124412864423248</v>
+        <v>5.0124412864423248E-2</v>
       </c>
       <c r="B91">
         <v>0.86937170970851863</v>
@@ -1603,9 +1624,9 @@
         <v>0.97493779356778831</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>0.045134323159315537</v>
+        <v>4.5134323159315537E-2</v>
       </c>
       <c r="B92">
         <v>0.86903897954256937</v>
@@ -1617,9 +1638,9 @@
         <v>0.97743283842034234</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>0.049968426543667462</v>
+        <v>4.9968426543667462E-2</v>
       </c>
       <c r="B93">
         <v>0.8670004182519444</v>
@@ -1631,9 +1652,9 @@
         <v>0.97501578672816624</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>0.038978389164682159</v>
+        <v>3.8978389164682159E-2</v>
       </c>
       <c r="B94">
         <v>0.88609826420979065</v>
@@ -1645,9 +1666,9 @@
         <v>0.980510805417659</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>0.040618035652400478</v>
+        <v>4.0618035652400478E-2</v>
       </c>
       <c r="B95">
         <v>0.86777869639715588</v>
@@ -1659,9 +1680,9 @@
         <v>0.97969098217379968</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>0.047678260969684409</v>
+        <v>4.7678260969684409E-2</v>
       </c>
       <c r="B96">
         <v>0.876935843628464</v>
@@ -1673,9 +1694,9 @@
         <v>0.97616086951515779</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>0.044019500465652173</v>
+        <v>4.4019500465652173E-2</v>
       </c>
       <c r="B97">
         <v>0.87742151339523411</v>
@@ -1687,9 +1708,9 @@
         <v>0.97799024976717386</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>0.029237317860787822</v>
+        <v>2.9237317860787822E-2</v>
       </c>
       <c r="B98">
         <v>0.90360027922568842</v>
@@ -1701,9 +1722,9 @@
         <v>0.98538134106960618</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>0.038364552853021219</v>
+        <v>3.8364552853021219E-2</v>
       </c>
       <c r="B99">
         <v>0.87091258308427011</v>
@@ -1715,9 +1736,9 @@
         <v>0.9808177235734894</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0.028292358661505965</v>
+        <v>2.8292358661505965E-2</v>
       </c>
       <c r="B100">
         <v>0.90624721293060273</v>
@@ -1729,9 +1750,9 @@
         <v>0.98585382066924709</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>0.0034174820480481704</v>
+        <v>3.4174820480481704E-3</v>
       </c>
       <c r="B101">
         <v>0.75796450453860953</v>
@@ -1743,7 +1764,7 @@
         <v>0.99980166398828307</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.11072156109491985</v>
       </c>
@@ -1757,9 +1778,9 @@
         <v>0.94620941987325402</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>0.005136106831022085</v>
+        <v>5.136106831022085E-3</v>
       </c>
       <c r="B103">
         <v>0.70582993434725294</v>
@@ -1771,9 +1792,9 @@
         <v>0.99990828380658892</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>0.050019113371251173</v>
+        <v>5.0019113371251173E-2</v>
       </c>
       <c r="B104">
         <v>0.67111347998282977</v>
@@ -1785,9 +1806,9 @@
         <v>0.97499044331437434</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>0.013786143105367753</v>
+        <v>1.3786143105367753E-2</v>
       </c>
       <c r="B105">
         <v>0.68028180030841068</v>
@@ -1799,9 +1820,9 @@
         <v>0.99419470840015833</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>0.05826191275335061</v>
+        <v>5.826191275335061E-2</v>
       </c>
       <c r="B106">
         <v>0.76052335968057772</v>
@@ -1813,9 +1834,9 @@
         <v>0.9719403444107434</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>0.0042451551527488661</v>
+        <v>4.2451551527488661E-3</v>
       </c>
       <c r="B107">
         <v>0.58580134462977473</v>
@@ -1827,9 +1848,9 @@
         <v>0.99932742421375131</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>0.048982746721877163</v>
+        <v>4.8982746721877163E-2</v>
       </c>
       <c r="B108">
         <v>0.8293580379760942</v>
@@ -1841,9 +1862,9 @@
         <v>0.97670975056689346</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>0.070342200097308072</v>
+        <v>7.0342200097308072E-2</v>
       </c>
       <c r="B109">
         <v>0.83258507351867372</v>
@@ -1855,9 +1876,9 @@
         <v>0.96576354645950546</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>0.014359939895359993</v>
+        <v>1.4359939895359993E-2</v>
       </c>
       <c r="B110">
         <v>0.81709783359636579</v>
@@ -1869,9 +1890,9 @@
         <v>0.99282003005232</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>0.02022568487029015</v>
+        <v>2.022568487029015E-2</v>
       </c>
       <c r="B111">
         <v>0.83902083279123374</v>
@@ -1883,9 +1904,9 @@
         <v>0.9898871575648549</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>0.037388144519681761</v>
+        <v>3.7388144519681761E-2</v>
       </c>
       <c r="B112">
         <v>0.73181196409596372</v>
@@ -1897,9 +1918,9 @@
         <v>0.98251612799948773</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>0.0029671938972509106</v>
+        <v>2.9671938972509106E-3</v>
       </c>
       <c r="B113">
         <v>0.59239387121185316</v>
@@ -1911,9 +1932,9 @@
         <v>0.99983129085109412</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>0.049115694392651447</v>
+        <v>4.9115694392651447E-2</v>
       </c>
       <c r="B114">
         <v>0.82481866117345937</v>
@@ -1925,9 +1946,9 @@
         <v>0.97765980358275484</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>0.05554906092376475</v>
+        <v>5.554906092376475E-2</v>
       </c>
       <c r="B115">
         <v>0.80571183302525928</v>
@@ -1939,9 +1960,9 @@
         <v>0.97405615801751422</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>0.023826076746478311</v>
+        <v>2.3826076746478311E-2</v>
       </c>
       <c r="B116">
         <v>0.84031972806792787</v>
@@ -1953,9 +1974,9 @@
         <v>0.98925493685827015</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>0.020510238436829861</v>
+        <v>2.0510238436829861E-2</v>
       </c>
       <c r="B117">
         <v>0.80127283801702576</v>
@@ -1967,9 +1988,9 @@
         <v>0.99031814831553366</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>0.061761950829993403</v>
+        <v>6.1761950829993403E-2</v>
       </c>
       <c r="B118">
         <v>0.81728121442683077</v>
@@ -1981,9 +2002,9 @@
         <v>0.97059993082474305</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>0.053065745748354723</v>
+        <v>5.3065745748354723E-2</v>
       </c>
       <c r="B119">
         <v>0.77482127487015529</v>
@@ -1995,9 +2016,9 @@
         <v>0.97494019305774071</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>0.073812396511556258</v>
+        <v>7.3812396511556258E-2</v>
       </c>
       <c r="B120">
         <v>0.77219181986396668</v>
@@ -2009,9 +2030,9 @@
         <v>0.96450095126982915</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>0.070369792479325941</v>
+        <v>7.0369792479325941E-2</v>
       </c>
       <c r="B121">
         <v>0.91790172984905405</v>
@@ -2023,9 +2044,9 @@
         <v>0.96850132625994689</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>0.089994522037801949</v>
+        <v>8.9994522037801949E-2</v>
       </c>
       <c r="B122">
         <v>0.71335412028017042</v>
@@ -2037,9 +2058,9 @@
         <v>0.95519166869924388</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>0.036161228406909787</v>
+        <v>3.6161228406909787E-2</v>
       </c>
       <c r="B123">
         <v>0.67502126759684677</v>
@@ -2051,9 +2072,9 @@
         <v>0.98191938579654514</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>0.091681926999487989</v>
+        <v>9.1681926999487989E-2</v>
       </c>
       <c r="B124">
         <v>0.76467738892793791</v>
@@ -2065,9 +2086,9 @@
         <v>0.95415903650025613</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>0.044569309255294592</v>
+        <v>4.4569309255294592E-2</v>
       </c>
       <c r="B125">
         <v>0.90477277152322788</v>
@@ -2079,9 +2100,9 @@
         <v>0.97771534537235272</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>0.023113768921324662</v>
+        <v>2.3113768921324662E-2</v>
       </c>
       <c r="B126">
         <v>0.94320304430631696</v>
@@ -2093,9 +2114,9 @@
         <v>0.98914021697435839</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>0.050092464056743981</v>
+        <v>5.0092464056743981E-2</v>
       </c>
       <c r="B127">
         <v>0.90157703037456149</v>
@@ -2107,9 +2128,9 @@
         <v>0.97591887689281509</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>0.069071607920414446</v>
+        <v>6.9071607920414446E-2</v>
       </c>
       <c r="B128">
         <v>0.86056758259089128</v>
@@ -2121,9 +2142,9 @@
         <v>0.96546419603979283</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>0.089654936522685941</v>
+        <v>8.9654936522685941E-2</v>
       </c>
       <c r="B129">
         <v>0.8758508980244889</v>
@@ -2135,9 +2156,9 @@
         <v>0.9588088668715119</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>0.079492600422832987</v>
+        <v>7.9492600422832987E-2</v>
       </c>
       <c r="B130">
         <v>0.90377424202118806</v>
@@ -2149,9 +2170,9 @@
         <v>0.96296335447498227</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>0.082687209697518985</v>
+        <v>8.2687209697518985E-2</v>
       </c>
       <c r="B131">
         <v>0.83301029554718553</v>
@@ -2163,9 +2184,9 @@
         <v>0.96069049507193838</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>0.030664193827260839</v>
+        <v>3.0664193827260839E-2</v>
       </c>
       <c r="B132">
         <v>0.94801743359285051</v>
@@ -2177,9 +2198,9 @@
         <v>0.98693723815364609</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>0.040372342301047213</v>
+        <v>4.0372342301047213E-2</v>
       </c>
       <c r="B133">
         <v>0.93753455171900224</v>
@@ -2191,9 +2212,9 @@
         <v>0.98347907337540996</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.014099607305366826</v>
+        <v>1.4099607305366826E-2</v>
       </c>
       <c r="B134">
         <v>0.89074735305653718</v>
@@ -2205,9 +2226,9 @@
         <v>0.99295019634731663</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>0.060832324944654785</v>
+        <v>6.0832324944654785E-2</v>
       </c>
       <c r="B135">
         <v>0.84349867150947244</v>
@@ -2219,9 +2240,9 @@
         <v>0.96981117307932818</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>0.043427778076203148</v>
+        <v>4.3427778076203148E-2</v>
       </c>
       <c r="B136">
         <v>0.74163200004779195</v>
@@ -2233,9 +2254,9 @@
         <v>0.97828611096189844</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>0.040963309989093824</v>
+        <v>4.0963309989093824E-2</v>
       </c>
       <c r="B137">
         <v>0.90905928459648966</v>
@@ -2247,9 +2268,9 @@
         <v>0.97951834500545309</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>0.057190468255290783</v>
+        <v>5.7190468255290783E-2</v>
       </c>
       <c r="B138">
         <v>0.87249298568238931</v>
@@ -2261,9 +2282,9 @@
         <v>0.97171971338110319</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>0.050644051524121936</v>
+        <v>5.0644051524121936E-2</v>
       </c>
       <c r="B139">
         <v>0.89499744191169495</v>
@@ -2275,9 +2296,9 @@
         <v>0.97482337048502343</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>0.049358153387937462</v>
+        <v>4.9358153387937462E-2</v>
       </c>
       <c r="B140">
         <v>0.88862083947657733</v>
@@ -2289,9 +2310,9 @@
         <v>0.97686895011169039</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>0.021362875532777693</v>
+        <v>2.1362875532777693E-2</v>
       </c>
       <c r="B141">
         <v>0.54340433419797873</v>
@@ -2303,9 +2324,9 @@
         <v>0.98931856223361114</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>0.0059489643228034794</v>
+        <v>5.9489643228034794E-3</v>
       </c>
       <c r="B142">
         <v>0.49269567918454144</v>
@@ -2317,9 +2338,9 @@
         <v>0.9972879070904267</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>0.0097152266838825638</v>
+        <v>9.7152266838825638E-3</v>
       </c>
       <c r="B143">
         <v>0.90500379469607906</v>
@@ -2331,9 +2352,9 @@
         <v>0.9987820416196217</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>0.00077611194908705613</v>
+        <v>7.7611194908705613E-4</v>
       </c>
       <c r="B144">
         <v>0.40986809876981883</v>
@@ -2345,9 +2366,9 @@
         <v>0.9996119440254565</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>0.0012136157714634041</v>
+        <v>1.2136157714634041E-3</v>
       </c>
       <c r="B145">
         <v>0.57837506318919774</v>
@@ -2359,9 +2380,9 @@
         <v>0.99940058094697137</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>0.0024893385300934698</v>
+        <v>2.4893385300934698E-3</v>
       </c>
       <c r="B146">
         <v>0.53117573297869847</v>
@@ -2373,9 +2394,9 @@
         <v>0.99875533073495304</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>0.0071087853476904505</v>
+        <v>7.1087853476904505E-3</v>
       </c>
       <c r="B147">
         <v>0.47642814337671135</v>
@@ -2387,9 +2408,9 @@
         <v>0.99648753815705604</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>0.0031796771991707403</v>
+        <v>3.1796771991707403E-3</v>
       </c>
       <c r="B148">
         <v>0.46720168121147221</v>
@@ -2401,9 +2422,9 @@
         <v>0.9996749915662847</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>0.00089437870895224742</v>
+        <v>8.9437870895224742E-4</v>
       </c>
       <c r="B149">
         <v>0.4273875124068765</v>
@@ -2415,9 +2436,9 @@
         <v>0.99955281064552393</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>0.00058077922469744795</v>
+        <v>5.8077922469744795E-4</v>
       </c>
       <c r="B150">
         <v>0.5902789728047374</v>
@@ -2429,9 +2450,9 @@
         <v>0.9997246955623188</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>0.0022170991317996764</v>
+        <v>2.2170991317996764E-3</v>
       </c>
       <c r="B151">
         <v>0.43014961472953678</v>
@@ -2443,9 +2464,9 @@
         <v>0.99890371315053705</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>0.0016495720353049484</v>
+        <v>1.6495720353049484E-3</v>
       </c>
       <c r="B152">
         <v>0.55056860277017949</v>
@@ -2457,9 +2478,9 @@
         <v>0.99919717405266517</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>0.00013237119745847302</v>
+        <v>1.3237119745847302E-4</v>
       </c>
       <c r="B153">
         <v>0.69914391271967147</v>
@@ -2471,9 +2492,9 @@
         <v>0.99993381440127072</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>0.013203622381442655</v>
+        <v>1.3203622381442655E-2</v>
       </c>
       <c r="B154">
         <v>0.53072177875872473</v>
@@ -2485,9 +2506,9 @@
         <v>0.99359905868510101</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>0.0051180378129790493</v>
+        <v>5.1180378129790493E-3</v>
       </c>
       <c r="B155">
         <v>0.52397382682002591</v>
@@ -2499,9 +2520,9 @@
         <v>0.99785277757500568</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>0.0014188645930223393</v>
+        <v>1.4188645930223393E-3</v>
       </c>
       <c r="B156">
         <v>0.44373410506007194</v>
@@ -2513,9 +2534,9 @@
         <v>0.99929056770348879</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>0.0016958651104992568</v>
+        <v>1.6958651104992568E-3</v>
       </c>
       <c r="B157">
         <v>0.51313520592687067</v>
@@ -2527,9 +2548,9 @@
         <v>0.99915206744475038</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>0.0063518322789495986</v>
+        <v>6.3518322789495986E-3</v>
       </c>
       <c r="B158">
         <v>0.48064338003281321</v>
@@ -2541,9 +2562,9 @@
         <v>0.99683089182652629</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>0.0068423921383930688</v>
+        <v>6.8423921383930688E-3</v>
       </c>
       <c r="B159">
         <v>0.4732027175784797</v>
@@ -2555,9 +2576,9 @@
         <v>0.99661981594864779</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>0.003196544276457883</v>
+        <v>3.196544276457883E-3</v>
       </c>
       <c r="B160">
         <v>0.50047169179232909</v>
@@ -2569,9 +2590,9 @@
         <v>0.9984077905346519</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>0.016603880746686547</v>
+        <v>1.6603880746686547E-2</v>
       </c>
       <c r="B161">
         <v>0.95697161745721915</v>
@@ -2583,9 +2604,9 @@
         <v>0.99169805962665669</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>0.044018936846408452</v>
+        <v>4.4018936846408452E-2</v>
       </c>
       <c r="B162">
         <v>0.90279204650340628</v>
@@ -2597,9 +2618,9 @@
         <v>0.97799053157679583</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>0.074830340820874988</v>
+        <v>7.4830340820874988E-2</v>
       </c>
       <c r="B163">
         <v>0.8419971049149525</v>
@@ -2611,9 +2632,9 @@
         <v>0.96264910391572567</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>0.01554066736383242</v>
+        <v>1.554066736383242E-2</v>
       </c>
       <c r="B164">
         <v>0.87255466847371543</v>
@@ -2625,9 +2646,9 @@
         <v>0.99222966631808374</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>0.095427659904854661</v>
+        <v>9.5427659904854661E-2</v>
       </c>
       <c r="B165">
         <v>0.80762573159792583</v>
@@ -2639,9 +2660,9 @@
         <v>0.95228617004757277</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>0.039906999676142321</v>
+        <v>3.9906999676142321E-2</v>
       </c>
       <c r="B166">
         <v>0.91805935410498685</v>
@@ -2653,7 +2674,7 @@
         <v>0.98004650016192896</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.10004586900327087</v>
       </c>
@@ -2667,9 +2688,9 @@
         <v>0.94998278126201197</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>0.034723849160958983</v>
+        <v>3.4723849160958983E-2</v>
       </c>
       <c r="B168">
         <v>0.89191200804323334</v>
@@ -2681,9 +2702,9 @@
         <v>0.98263807541952053</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>0.093334664935583761</v>
+        <v>9.3334664935583761E-2</v>
       </c>
       <c r="B169">
         <v>0.79848801703952588</v>
@@ -2695,7 +2716,7 @@
         <v>0.95333266753220802</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.10481368942907406</v>
       </c>
@@ -2709,7 +2730,7 @@
         <v>0.94768134998904241</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.10056942912223224</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>0.94971528543888395</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.11092361884018079</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>0.94455946629859677</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.10125509568849529</v>
       </c>
@@ -2751,9 +2772,9 @@
         <v>0.94938316230562747</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>0.056236481614996399</v>
+        <v>5.6236481614996399E-2</v>
       </c>
       <c r="B174">
         <v>0.8848637462992599</v>
@@ -2765,9 +2786,9 @@
         <v>0.97189274556253646</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>0.05269386483961383</v>
+        <v>5.269386483961383E-2</v>
       </c>
       <c r="B175">
         <v>0.89461990632021282</v>
@@ -2779,9 +2800,9 @@
         <v>0.9736530675801931</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>0.095490004408410475</v>
+        <v>9.5490004408410475E-2</v>
       </c>
       <c r="B176">
         <v>0.79560358433876122</v>
@@ -2793,9 +2814,9 @@
         <v>0.95231856835272388</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>0.09587022445226584</v>
+        <v>9.587022445226584E-2</v>
       </c>
       <c r="B177">
         <v>0.79060576687992112</v>
@@ -2807,9 +2828,9 @@
         <v>0.95206488777386689</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>0.085867331049517243</v>
+        <v>8.5867331049517243E-2</v>
       </c>
       <c r="B178">
         <v>0.80976884615384659</v>
@@ -2821,9 +2842,9 @@
         <v>0.9570940170940172</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>0.088661238513716017</v>
+        <v>8.8661238513716017E-2</v>
       </c>
       <c r="B179">
         <v>0.82291831396213577</v>
@@ -2835,9 +2856,9 @@
         <v>0.95570772111844149</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>0.022008122609907213</v>
+        <v>2.2008122609907213E-2</v>
       </c>
       <c r="B180">
         <v>0.94385793164353848</v>
@@ -2849,9 +2870,9 @@
         <v>0.98899593869504643</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>0.016603880746686547</v>
+        <v>1.6603880746686547E-2</v>
       </c>
       <c r="B181">
         <v>0.95697161745721915</v>
@@ -2863,9 +2884,9 @@
         <v>0.99169805962665669</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>0.044018936846408452</v>
+        <v>4.4018936846408452E-2</v>
       </c>
       <c r="B182">
         <v>0.90279204650340628</v>
@@ -2877,9 +2898,9 @@
         <v>0.97799053157679583</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>0.074830340820874988</v>
+        <v>7.4830340820874988E-2</v>
       </c>
       <c r="B183">
         <v>0.8419971049149525</v>
@@ -2891,9 +2912,9 @@
         <v>0.96264910391572567</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>0.01554066736383242</v>
+        <v>1.554066736383242E-2</v>
       </c>
       <c r="B184">
         <v>0.87255466847371543</v>
@@ -2905,9 +2926,9 @@
         <v>0.99222966631808374</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>0.095427659904854661</v>
+        <v>9.5427659904854661E-2</v>
       </c>
       <c r="B185">
         <v>0.80762573159792583</v>
@@ -2919,9 +2940,9 @@
         <v>0.95228617004757277</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>0.039906999676142321</v>
+        <v>3.9906999676142321E-2</v>
       </c>
       <c r="B186">
         <v>0.91805935410498685</v>
@@ -2933,7 +2954,7 @@
         <v>0.98004650016192896</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0.10004586900327087</v>
       </c>
@@ -2947,9 +2968,9 @@
         <v>0.94998278126201197</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>0.034723849160958983</v>
+        <v>3.4723849160958983E-2</v>
       </c>
       <c r="B188">
         <v>0.89191200804323334</v>
@@ -2961,9 +2982,9 @@
         <v>0.98263807541952053</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>0.093334664935583761</v>
+        <v>9.3334664935583761E-2</v>
       </c>
       <c r="B189">
         <v>0.79848801703952588</v>
@@ -2975,7 +2996,7 @@
         <v>0.95333266753220802</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0.10481368942907406</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>0.94768134998904241</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0.10056942912223224</v>
       </c>
@@ -3003,7 +3024,7 @@
         <v>0.94971528543888395</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0.11092361884018079</v>
       </c>
@@ -3017,7 +3038,7 @@
         <v>0.94455946629859677</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0.10125509568849529</v>
       </c>
@@ -3031,9 +3052,9 @@
         <v>0.94938316230562747</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>0.056236481614996399</v>
+        <v>5.6236481614996399E-2</v>
       </c>
       <c r="B194">
         <v>0.8848637462992599</v>
@@ -3045,9 +3066,9 @@
         <v>0.97189274556253646</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>0.05269386483961383</v>
+        <v>5.269386483961383E-2</v>
       </c>
       <c r="B195">
         <v>0.89461990632021282</v>
@@ -3059,9 +3080,9 @@
         <v>0.9736530675801931</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>0.095490004408410475</v>
+        <v>9.5490004408410475E-2</v>
       </c>
       <c r="B196">
         <v>0.79560358433876122</v>
@@ -3073,9 +3094,9 @@
         <v>0.95231856835272388</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>0.09587022445226584</v>
+        <v>9.587022445226584E-2</v>
       </c>
       <c r="B197">
         <v>0.79060576687992112</v>
@@ -3087,9 +3108,9 @@
         <v>0.95206488777386689</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>0.085867331049517243</v>
+        <v>8.5867331049517243E-2</v>
       </c>
       <c r="B198">
         <v>0.80976884615384659</v>
@@ -3101,9 +3122,9 @@
         <v>0.9570940170940172</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>0.088661238513716017</v>
+        <v>8.8661238513716017E-2</v>
       </c>
       <c r="B199">
         <v>0.82291831396213577</v>
@@ -3115,9 +3136,9 @@
         <v>0.95570772111844149</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>0.022008122609907213</v>
+        <v>2.2008122609907213E-2</v>
       </c>
       <c r="B200">
         <v>0.94385793164353848</v>
@@ -3129,9 +3150,9 @@
         <v>0.98899593869504643</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>0.0094285839582511077</v>
+        <v>9.4285839582511077E-3</v>
       </c>
       <c r="B201">
         <v>0.67587655241630284</v>
@@ -3143,9 +3164,9 @@
         <v>0.99528570802087446</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0.02956238932861863</v>
+        <v>2.956238932861863E-2</v>
       </c>
       <c r="B202">
         <v>0.79698821327419267</v>
@@ -3157,9 +3178,9 @@
         <v>0.98521880533569073</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>0.097509012247941534</v>
+        <v>9.7509012247941534E-2</v>
       </c>
       <c r="B203">
         <v>0.80362510966462353</v>
@@ -3171,9 +3192,9 @@
         <v>0.9512454938760293</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>0.089717194279998413</v>
+        <v>8.9717194279998413E-2</v>
       </c>
       <c r="B204">
         <v>0.81998107617469029</v>
@@ -3185,9 +3206,9 @@
         <v>0.95514140286000082</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>0.099398095917972773</v>
+        <v>9.9398095917972773E-2</v>
       </c>
       <c r="B205">
         <v>0.80119853397068086</v>
@@ -3199,9 +3220,9 @@
         <v>0.95030095204101361</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>0.044752694392394078</v>
+        <v>4.4752694392394078E-2</v>
       </c>
       <c r="B206">
         <v>0.72592753818283529</v>
@@ -3213,9 +3234,9 @@
         <v>0.97762365280380292</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>0.010063881009119934</v>
+        <v>1.0063881009119934E-2</v>
       </c>
       <c r="B207">
         <v>0.64996797613092483</v>
@@ -3227,9 +3248,9 @@
         <v>0.99496805949543998</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>0.095537779210631779</v>
+        <v>9.5537779210631779E-2</v>
       </c>
       <c r="B208">
         <v>0.78558342773546053</v>
@@ -3241,9 +3262,9 @@
         <v>0.95223111039468411</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>0.00024210719728494072</v>
+        <v>2.4210719728494072E-4</v>
       </c>
       <c r="B209">
         <v>0.60827051736142645</v>
@@ -3255,9 +3276,9 @@
         <v>0.99987894640135744</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>0.0029853372802634637</v>
+        <v>2.9853372802634637E-3</v>
       </c>
       <c r="B210">
         <v>0.61409383934553941</v>
@@ -3269,9 +3290,9 @@
         <v>0.99850733135986836</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>0.00042554717477318098</v>
+        <v>4.2554717477318098E-4</v>
       </c>
       <c r="B211">
         <v>0.55029217615114812</v>
@@ -3283,9 +3304,9 @@
         <v>0.99978722641261353</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>0.054103073337504873</v>
+        <v>5.4103073337504873E-2</v>
       </c>
       <c r="B212">
         <v>0.74950393050162389</v>
@@ -3297,9 +3318,9 @@
         <v>0.97294846333124763</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>0.00023554110448296167</v>
+        <v>2.3554110448296167E-4</v>
       </c>
       <c r="B213">
         <v>0.60333047032315978</v>
@@ -3311,9 +3332,9 @@
         <v>0.99988222944775851</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>0.010256560535685504</v>
+        <v>1.0256560535685504E-2</v>
       </c>
       <c r="B214">
         <v>0.72828747905784741</v>
@@ -3325,9 +3346,9 @@
         <v>0.99487171973215727</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>0.062286407231837725</v>
+        <v>6.2286407231837725E-2</v>
       </c>
       <c r="B215">
         <v>0.79139523028235492</v>
@@ -3339,9 +3360,9 @@
         <v>0.96885679638408118</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>0.092907730290181956</v>
+        <v>9.2907730290181956E-2</v>
       </c>
       <c r="B216">
         <v>0.77074278148595621</v>
@@ -3353,9 +3374,9 @@
         <v>0.95354613485490902</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>3.8941568176950488e-05</v>
+        <v>3.8941568176950488E-5</v>
       </c>
       <c r="B217">
         <v>0.53331386173682938</v>
@@ -3367,9 +3388,9 @@
         <v>0.99998052921591141</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>0.0047255994073077071</v>
+        <v>4.7255994073077071E-3</v>
       </c>
       <c r="B218">
         <v>0.58123882050800435</v>
@@ -3381,9 +3402,9 @@
         <v>0.99763720029634606</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>0.052998318058559021</v>
+        <v>5.2998318058559021E-2</v>
       </c>
       <c r="B219">
         <v>0.70928474130129704</v>
@@ -3395,9 +3416,9 @@
         <v>0.97350084097072054</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>0.094148582571314615</v>
+        <v>9.4148582571314615E-2</v>
       </c>
       <c r="B220">
         <v>0.80999079893560177</v>
@@ -3409,9 +3430,9 @@
         <v>0.95292570871434268</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>0.069039403589398779</v>
+        <v>6.9039403589398779E-2</v>
       </c>
       <c r="B221">
         <v>0.75867364897108081</v>
@@ -3423,9 +3444,9 @@
         <v>0.96548029820530068</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>0.080203852722134455</v>
+        <v>8.0203852722134455E-2</v>
       </c>
       <c r="B222">
         <v>0.76931817306131745</v>
@@ -3437,9 +3458,9 @@
         <v>0.96029596033427533</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>0.0016644663885515129</v>
+        <v>1.6644663885515129E-3</v>
       </c>
       <c r="B223">
         <v>0.20958773037208334</v>
@@ -3451,7 +3472,7 @@
         <v>0.99916776680572439</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0.13671638391169968</v>
       </c>
@@ -3465,7 +3486,7 @@
         <v>0.93164180804415009</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0.12836226176471954</v>
       </c>
@@ -3479,9 +3500,9 @@
         <v>0.93581886911764023</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>0.062107962982406145</v>
+        <v>6.2107962982406145E-2</v>
       </c>
       <c r="B226">
         <v>0.56457816034323338</v>
@@ -3493,9 +3514,9 @@
         <v>0.96972559283646564</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>0.058435079480203073</v>
+        <v>5.8435079480203073E-2</v>
       </c>
       <c r="B227">
         <v>0.51611765663406173</v>
@@ -3507,9 +3528,9 @@
         <v>0.97078246025989845</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>0.0030156291495925798</v>
+        <v>3.0156291495925798E-3</v>
       </c>
       <c r="B228">
         <v>0.35529123389759787</v>
@@ -3521,9 +3542,9 @@
         <v>0.99849218542520368</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>0.021716505932144591</v>
+        <v>2.1716505932144591E-2</v>
       </c>
       <c r="B229">
         <v>0.48221594086402148</v>
@@ -3535,7 +3556,7 @@
         <v>0.98914174703392777</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0.10193201755527673</v>
       </c>
@@ -3549,9 +3570,9 @@
         <v>0.94903399122236154</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>0.093924254633360196</v>
+        <v>9.3924254633360196E-2</v>
       </c>
       <c r="B231">
         <v>0.8121093281030336</v>
@@ -3563,7 +3584,7 @@
         <v>0.95303787268331996</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0.10057522701873721</v>
       </c>
@@ -3577,9 +3598,9 @@
         <v>0.94971238649063139</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>0.061163736633079314</v>
+        <v>6.1163736633079314E-2</v>
       </c>
       <c r="B233">
         <v>0.72095705081136185</v>
@@ -3591,7 +3612,7 @@
         <v>0.96941813168346036</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0.11209735406256231</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>0.94395132296871886</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0.1668477533652688</v>
       </c>
@@ -3619,9 +3640,9 @@
         <v>0.9165761233173656</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>0.096514185240850245</v>
+        <v>9.6514185240850245E-2</v>
       </c>
       <c r="B236">
         <v>0.7574814853656</v>
@@ -3633,9 +3654,9 @@
         <v>0.9517429073795749</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>0.093052843208603186</v>
+        <v>9.3052843208603186E-2</v>
       </c>
       <c r="B237">
         <v>0.81202752574694215</v>
@@ -3647,7 +3668,7 @@
         <v>0.95372096188985289</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0.1264966925176727</v>
       </c>
@@ -3661,9 +3682,9 @@
         <v>0.93675165374116365</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>0.063901116315103701</v>
+        <v>6.3901116315103701E-2</v>
       </c>
       <c r="B239">
         <v>0.76518819962796158</v>
@@ -3675,7 +3696,7 @@
         <v>0.96804944184244812</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0.10597320585783759</v>
       </c>
@@ -3689,9 +3710,9 @@
         <v>0.94701339707108123</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>0.013139084410978337</v>
+        <v>1.3139084410978337E-2</v>
       </c>
       <c r="B241">
         <v>0.48432638880546708</v>
@@ -3703,9 +3724,9 @@
         <v>0.99343045779451089</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>0.0047950502706883219</v>
+        <v>4.7950502706883219E-3</v>
       </c>
       <c r="B242">
         <v>0.41696747859619343</v>
@@ -3717,9 +3738,9 @@
         <v>0.99760247486465592</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>0.043186396018718418</v>
+        <v>4.3186396018718418E-2</v>
       </c>
       <c r="B243">
         <v>0.64464718092619799</v>
@@ -3731,9 +3752,9 @@
         <v>0.9784068019906409</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>0.0030341854269619506</v>
+        <v>3.0341854269619506E-3</v>
       </c>
       <c r="B244">
         <v>0.4290542152821899</v>
@@ -3745,9 +3766,9 @@
         <v>0.99848290728651889</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>0.0078593062201790728</v>
+        <v>7.8593062201790728E-3</v>
       </c>
       <c r="B245">
         <v>0.44021295005000999</v>
@@ -3759,9 +3780,9 @@
         <v>0.99607034688991047</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>0.012952832139567237</v>
+        <v>1.2952832139567237E-2</v>
       </c>
       <c r="B246">
         <v>0.49263924715009005</v>
@@ -3773,9 +3794,9 @@
         <v>0.99352358393021645</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>0.0029618209112670913</v>
+        <v>2.9618209112670913E-3</v>
       </c>
       <c r="B247">
         <v>0.35874712344572357</v>
@@ -3787,9 +3808,9 @@
         <v>0.99851908954436652</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>0.0071666903869570028</v>
+        <v>7.1666903869570028E-3</v>
       </c>
       <c r="B248">
         <v>0.61137938905764555</v>
@@ -3801,9 +3822,9 @@
         <v>0.99731328178123568</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>0.0034078914300075397</v>
+        <v>3.4078914300075397E-3</v>
       </c>
       <c r="B249">
         <v>0.37474819026163647</v>
@@ -3815,9 +3836,9 @@
         <v>0.99829605428499635</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>0.0070491188601424816</v>
+        <v>7.0491188601424816E-3</v>
       </c>
       <c r="B250">
         <v>0.4860665049786137</v>
@@ -3829,9 +3850,9 @@
         <v>0.99647544056992876</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>0.011880207903638314</v>
+        <v>1.1880207903638314E-2</v>
       </c>
       <c r="B251">
         <v>0.45410187775145133</v>
@@ -3843,9 +3864,9 @@
         <v>0.99405989604818079</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>0.0051585791464600628</v>
+        <v>5.1585791464600628E-3</v>
       </c>
       <c r="B252">
         <v>0.40296409971800506</v>
@@ -3857,9 +3878,9 @@
         <v>0.99742071042676994</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>0.0073897683133917584</v>
+        <v>7.3897683133917584E-3</v>
       </c>
       <c r="B253">
         <v>0.48033937666132759</v>
@@ -3871,9 +3892,9 @@
         <v>0.99630511584330406</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>0.024183048662584597</v>
+        <v>2.4183048662584597E-2</v>
       </c>
       <c r="B254">
         <v>0.55148926853159386</v>
@@ -3885,9 +3906,9 @@
         <v>0.98790847566870776</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>0.011883630555874016</v>
+        <v>1.1883630555874016E-2</v>
       </c>
       <c r="B255">
         <v>0.48622047164905219</v>
@@ -3899,9 +3920,9 @@
         <v>0.99405818472206309</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>0.0036796018066181215</v>
+        <v>3.6796018066181215E-3</v>
       </c>
       <c r="B256">
         <v>0.36005224829091159</v>
@@ -3913,9 +3934,9 @@
         <v>0.99816019909669085</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>0.0063766781354366066</v>
+        <v>6.3766781354366066E-3</v>
       </c>
       <c r="B257">
         <v>0.4431393153172678</v>
@@ -3927,9 +3948,9 @@
         <v>0.99681166093228168</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>0.00063942914154771708</v>
+        <v>6.3942914154771708E-4</v>
       </c>
       <c r="B258">
         <v>0.44219741401287388</v>
@@ -3941,9 +3962,9 @@
         <v>0.99968028542922605</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>0.0028193210566570572</v>
+        <v>2.8193210566570572E-3</v>
       </c>
       <c r="B259">
         <v>0.41816372862651224</v>
@@ -3955,9 +3976,9 @@
         <v>0.99859033947167153</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>0.0015921690296667749</v>
+        <v>1.5921690296667749E-3</v>
       </c>
       <c r="B260">
         <v>0.46875460678884479</v>
@@ -3969,9 +3990,9 @@
         <v>0.99920391548516652</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>0.013031508106454573</v>
+        <v>1.3031508106454573E-2</v>
       </c>
       <c r="B261">
         <v>0.78272937451498981</v>
@@ -3983,9 +4004,9 @@
         <v>0.99348424594677276</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>0.015035523760355975</v>
+        <v>1.5035523760355975E-2</v>
       </c>
       <c r="B262">
         <v>0.6084572003277845</v>
@@ -3997,9 +4018,9 @@
         <v>0.99248223811982195</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>0.034990993456004746</v>
+        <v>3.4990993456004746E-2</v>
       </c>
       <c r="B263">
         <v>0.60376848316815412</v>
@@ -4011,9 +4032,9 @@
         <v>0.98250450327199768</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>0.034578942071285819</v>
+        <v>3.4578942071285819E-2</v>
       </c>
       <c r="B264">
         <v>0.63337575263848378</v>
@@ -4025,9 +4046,9 @@
         <v>0.98271052896435707</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>0.050175590513301588</v>
+        <v>5.0175590513301588E-2</v>
       </c>
       <c r="B265">
         <v>0.64582867132298116</v>
@@ -4039,9 +4060,9 @@
         <v>0.97491220474334916</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>0.053062841158049781</v>
+        <v>5.3062841158049781E-2</v>
       </c>
       <c r="B266">
         <v>0.84381659019621647</v>
@@ -4053,9 +4074,9 @@
         <v>0.9734685794209752</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>0.049308020637224607</v>
+        <v>4.9308020637224607E-2</v>
       </c>
       <c r="B267">
         <v>0.6412844423968328</v>
@@ -4067,9 +4088,9 @@
         <v>0.97534598968138775</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>0.029694629281066545</v>
+        <v>2.9694629281066545E-2</v>
       </c>
       <c r="B268">
         <v>0.92373861510659505</v>
@@ -4081,9 +4102,9 @@
         <v>0.98515268535946676</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>0.010589499319532986</v>
+        <v>1.0589499319532986E-2</v>
       </c>
       <c r="B269">
         <v>0.87271377773455749</v>
@@ -4095,9 +4116,9 @@
         <v>0.99470525034023349</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>0.0042811133833776226</v>
+        <v>4.2811133833776226E-3</v>
       </c>
       <c r="B270">
         <v>0.83898129664257182</v>
@@ -4109,9 +4130,9 @@
         <v>0.99785944330831111</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>0.0018098800099106858</v>
+        <v>1.8098800099106858E-3</v>
       </c>
       <c r="B271">
         <v>0.80556947642653232</v>
@@ -4123,9 +4144,9 @@
         <v>0.99909505999504467</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>0.0024340378171084308</v>
+        <v>2.4340378171084308E-3</v>
       </c>
       <c r="B272">
         <v>0.81677523464524449</v>
@@ -4137,9 +4158,9 @@
         <v>0.9987829810914457</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>0.059274529607406853</v>
+        <v>5.9274529607406853E-2</v>
       </c>
       <c r="B273">
         <v>0.82218465634129723</v>
@@ -4151,9 +4172,9 @@
         <v>0.97036273519629668</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>0.071079657435577814</v>
+        <v>7.1079657435577814E-2</v>
       </c>
       <c r="B274">
         <v>0.81804826941096764</v>
@@ -4165,9 +4186,9 @@
         <v>0.96446017128221107</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>0.018857334205029261</v>
+        <v>1.8857334205029261E-2</v>
       </c>
       <c r="B275">
         <v>0.94859062044820774</v>
@@ -4179,9 +4200,9 @@
         <v>0.99057133289748545</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>0.026853039618997064</v>
+        <v>2.6853039618997064E-2</v>
       </c>
       <c r="B276">
         <v>0.94460744117303508</v>
@@ -4193,9 +4214,9 @@
         <v>0.9865734801905014</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>0.0593921007895548</v>
+        <v>5.93921007895548E-2</v>
       </c>
       <c r="B277">
         <v>0.85180344515556883</v>
@@ -4207,9 +4228,9 @@
         <v>0.97030394960522259</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>0.007704718913725277</v>
+        <v>7.704718913725277E-3</v>
       </c>
       <c r="B278">
         <v>0.63284946724406388</v>
@@ -4221,9 +4242,9 @@
         <v>0.99914568263809567</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B279">
         <v>0.29443519010170832</v>
@@ -4235,9 +4256,9 @@
         <v>0.99980680372868802</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>0.0042822435460472272</v>
+        <v>4.2822435460472272E-3</v>
       </c>
       <c r="B280">
         <v>0.60208675213438267</v>
@@ -4249,9 +4270,9 @@
         <v>0.99785887822697639</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>0.013031508106454573</v>
+        <v>1.3031508106454573E-2</v>
       </c>
       <c r="B281">
         <v>0.78272937451498981</v>
@@ -4263,9 +4284,9 @@
         <v>0.99348424594677276</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>0.015035523760355975</v>
+        <v>1.5035523760355975E-2</v>
       </c>
       <c r="B282">
         <v>0.6084572003277845</v>
@@ -4277,9 +4298,9 @@
         <v>0.99248223811982195</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>0.034990993456004746</v>
+        <v>3.4990993456004746E-2</v>
       </c>
       <c r="B283">
         <v>0.60376848316815412</v>
@@ -4291,9 +4312,9 @@
         <v>0.98250450327199768</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>0.034578942071285819</v>
+        <v>3.4578942071285819E-2</v>
       </c>
       <c r="B284">
         <v>0.63337575263848378</v>
@@ -4305,9 +4326,9 @@
         <v>0.98271052896435707</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>0.050175590513301588</v>
+        <v>5.0175590513301588E-2</v>
       </c>
       <c r="B285">
         <v>0.64582867132298116</v>
@@ -4319,9 +4340,9 @@
         <v>0.97491220474334916</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>0.053062841158049781</v>
+        <v>5.3062841158049781E-2</v>
       </c>
       <c r="B286">
         <v>0.84381659019621647</v>
@@ -4333,9 +4354,9 @@
         <v>0.9734685794209752</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>0.049308020637224607</v>
+        <v>4.9308020637224607E-2</v>
       </c>
       <c r="B287">
         <v>0.6412844423968328</v>
@@ -4347,9 +4368,9 @@
         <v>0.97534598968138775</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>0.029694629281066545</v>
+        <v>2.9694629281066545E-2</v>
       </c>
       <c r="B288">
         <v>0.92373861510659505</v>
@@ -4361,9 +4382,9 @@
         <v>0.98515268535946676</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>0.010589499319532986</v>
+        <v>1.0589499319532986E-2</v>
       </c>
       <c r="B289">
         <v>0.87271377773455749</v>
@@ -4375,9 +4396,9 @@
         <v>0.99470525034023349</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>0.0042811133833776226</v>
+        <v>4.2811133833776226E-3</v>
       </c>
       <c r="B290">
         <v>0.83898129664257182</v>
@@ -4389,9 +4410,9 @@
         <v>0.99785944330831111</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>0.0018098800099106858</v>
+        <v>1.8098800099106858E-3</v>
       </c>
       <c r="B291">
         <v>0.80556947642653232</v>
@@ -4403,9 +4424,9 @@
         <v>0.99909505999504467</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>0.0024340378171084308</v>
+        <v>2.4340378171084308E-3</v>
       </c>
       <c r="B292">
         <v>0.81677523464524449</v>
@@ -4417,9 +4438,9 @@
         <v>0.9987829810914457</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>0.059274529607406853</v>
+        <v>5.9274529607406853E-2</v>
       </c>
       <c r="B293">
         <v>0.82218465634129723</v>
@@ -4431,9 +4452,9 @@
         <v>0.97036273519629668</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>0.071079657435577814</v>
+        <v>7.1079657435577814E-2</v>
       </c>
       <c r="B294">
         <v>0.81804826941096764</v>
@@ -4445,9 +4466,9 @@
         <v>0.96446017128221107</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>0.018857334205029261</v>
+        <v>1.8857334205029261E-2</v>
       </c>
       <c r="B295">
         <v>0.94859062044820774</v>
@@ -4459,9 +4480,9 @@
         <v>0.99057133289748545</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>0.026853039618997064</v>
+        <v>2.6853039618997064E-2</v>
       </c>
       <c r="B296">
         <v>0.94460744117303508</v>
@@ -4473,9 +4494,9 @@
         <v>0.9865734801905014</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>0.0593921007895548</v>
+        <v>5.93921007895548E-2</v>
       </c>
       <c r="B297">
         <v>0.85180344515556883</v>
@@ -4487,9 +4508,9 @@
         <v>0.97030394960522259</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>0.007704718913725277</v>
+        <v>7.704718913725277E-3</v>
       </c>
       <c r="B298">
         <v>0.63284946724406388</v>
@@ -4501,9 +4522,9 @@
         <v>0.99914568263809567</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>0.0003863925426239274</v>
+        <v>3.863925426239274E-4</v>
       </c>
       <c r="B299">
         <v>0.29443519010170832</v>
@@ -4515,9 +4536,9 @@
         <v>0.99980680372868802</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>0.0042822435460472272</v>
+        <v>4.2822435460472272E-3</v>
       </c>
       <c r="B300">
         <v>0.60208675213438267</v>
@@ -4529,9 +4550,9 @@
         <v>0.99785887822697639</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>2.4742905744993426e-05</v>
+        <v>2.4742905744993426E-5</v>
       </c>
       <c r="B301">
         <v>0.55554318375830469</v>
@@ -4543,9 +4564,9 @@
         <v>0.99998762854712764</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>0.0035173584684737428</v>
+        <v>3.5173584684737428E-3</v>
       </c>
       <c r="B302">
         <v>0.71790179525768405</v>
@@ -4557,9 +4578,9 @@
         <v>0.9985732685439962</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>0.0052406147644242888</v>
+        <v>5.2406147644242888E-3</v>
       </c>
       <c r="B303">
         <v>0.66020239772385392</v>
@@ -4571,9 +4592,9 @@
         <v>0.99737969261778792</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>0.00033958659299436033</v>
+        <v>3.3958659299436033E-4</v>
       </c>
       <c r="B304">
         <v>0.66548524343867066</v>
@@ -4585,9 +4606,9 @@
         <v>0.99983020670350287</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>0.022599220036886344</v>
+        <v>2.2599220036886344E-2</v>
       </c>
       <c r="B305">
         <v>0.8941359495743546</v>
@@ -4599,9 +4620,9 @@
         <v>0.98870038998155674</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>0.0002038106938338773</v>
+        <v>2.038106938338773E-4</v>
       </c>
       <c r="B306">
         <v>0.73124133956634474</v>
@@ -4613,9 +4634,9 @@
         <v>0.99989809465308299</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>0.0014324048425573164</v>
+        <v>1.4324048425573164E-3</v>
       </c>
       <c r="B307">
         <v>0.9358141384480253</v>
@@ -4627,10 +4648,13 @@
         <v>0.99928379757872143</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0</v>
       </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
       <c r="C308">
         <v>1</v>
       </c>
@@ -4638,12 +4662,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>0.00011455409817286213</v>
+        <v>1.1455409817286213E-4</v>
       </c>
       <c r="B309">
-        <v>-5.7280329934700431e-05</v>
+        <v>-5.7280329934700431E-5</v>
       </c>
       <c r="C309">
         <v>0.99977091148761632</v>
@@ -4652,9 +4676,9 @@
         <v>0.99994272295091369</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>0.00063935255437531609</v>
+        <v>6.3935255437531609E-4</v>
       </c>
       <c r="B310">
         <v>0.66350980667589921</v>
@@ -4666,9 +4690,9 @@
         <v>0.99968032372281246</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>0.0069876156844041254</v>
+        <v>6.9876156844041254E-3</v>
       </c>
       <c r="B311">
         <v>0.85070426725558623</v>
@@ -4680,9 +4704,9 @@
         <v>0.99650619215779801</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>0.0036188850768882463</v>
+        <v>3.6188850768882463E-3</v>
       </c>
       <c r="B312">
         <v>0.79099629511309066</v>
@@ -4694,9 +4718,9 @@
         <v>0.99819055746155583</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>0.00023662438414278589</v>
+        <v>2.3662438414278589E-4</v>
       </c>
       <c r="B313">
         <v>0.61497519357593022</v>
@@ -4708,9 +4732,9 @@
         <v>0.99988168780792852</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>0.00015482741791622491</v>
+        <v>1.5482741791622491E-4</v>
       </c>
       <c r="B314">
         <v>0.41017898638427414</v>
@@ -4722,9 +4746,9 @@
         <v>0.9999225862910418</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>0.00017668638167253126</v>
+        <v>1.7668638167253126E-4</v>
       </c>
       <c r="B315">
         <v>0.6740374476065869</v>
@@ -4736,9 +4760,9 @@
         <v>0.99991165680916372</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>0.00061458838751415174</v>
+        <v>6.1458838751415174E-4</v>
       </c>
       <c r="B316">
         <v>0.69192367872144445</v>
@@ -4750,9 +4774,9 @@
         <v>0.99969270580624292</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>0.0016559865201408554</v>
+        <v>1.6559865201408554E-3</v>
       </c>
       <c r="B317">
         <v>0.67872098397811575</v>
@@ -4764,9 +4788,9 @@
         <v>0.99917200673992945</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>0.00041185576527061763</v>
+        <v>4.1185576527061763E-4</v>
       </c>
       <c r="B318">
         <v>0.73640180002862943</v>
@@ -4778,9 +4802,9 @@
         <v>0.99979407211736482</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>0.00018427235454001014</v>
+        <v>1.8427235454001014E-4</v>
       </c>
       <c r="B319">
         <v>0.3876629519959699</v>
@@ -4792,9 +4816,9 @@
         <v>0.99990786382273011</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>0.0036392346504484276</v>
+        <v>3.6392346504484276E-3</v>
       </c>
       <c r="B320">
         <v>0.59086416905499051</v>
@@ -4806,9 +4830,9 @@
         <v>0.99922959252908317</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>0.051839489689956983</v>
+        <v>5.1839489689956983E-2</v>
       </c>
       <c r="B321">
         <v>0.89610036728881037</v>
@@ -4820,9 +4844,9 @@
         <v>0.9740802551550215</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>0.051480618147284815</v>
+        <v>5.1480618147284815E-2</v>
       </c>
       <c r="B322">
         <v>0.85537104775623962</v>
@@ -4834,9 +4858,9 @@
         <v>0.97425969092635756</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>0.03396075658679451</v>
+        <v>3.396075658679451E-2</v>
       </c>
       <c r="B323">
         <v>0.84500673811258209</v>
@@ -4848,9 +4872,9 @@
         <v>0.98301962170660273</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>0.01984666254859925</v>
+        <v>1.984666254859925E-2</v>
       </c>
       <c r="B324">
         <v>0.8774094120900382</v>
@@ -4862,9 +4886,9 @@
         <v>0.99007666872570033</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>0.051025043680838669</v>
+        <v>5.1025043680838669E-2</v>
       </c>
       <c r="B325">
         <v>0.89061021678292995</v>
@@ -4876,9 +4900,9 @@
         <v>0.9744874781595807</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>0.0086136049991471682</v>
+        <v>8.6136049991471682E-3</v>
       </c>
       <c r="B326">
         <v>0.74922745186770667</v>
@@ -4890,9 +4914,9 @@
         <v>0.99569319750042629</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>0.026869955279232111</v>
+        <v>2.6869955279232111E-2</v>
       </c>
       <c r="B327">
         <v>0.84882613628002856</v>
@@ -4904,9 +4928,9 @@
         <v>0.98656502236038379</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>0.030668684645019262</v>
+        <v>3.0668684645019262E-2</v>
       </c>
       <c r="B328">
         <v>0.77325948199258798</v>
@@ -4918,9 +4942,9 @@
         <v>0.9866159878921299</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>0.028367873107991527</v>
+        <v>2.8367873107991527E-2</v>
       </c>
       <c r="B329">
         <v>0.75248118666107144</v>
@@ -4932,9 +4956,9 @@
         <v>0.9956011415771312</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>0.042846754191177422</v>
+        <v>4.2846754191177422E-2</v>
       </c>
       <c r="B330">
         <v>0.90054788045059253</v>
@@ -4946,9 +4970,9 @@
         <v>0.97857662290441128</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>0.047668705969595847</v>
+        <v>4.7668705969595847E-2</v>
       </c>
       <c r="B331">
         <v>0.90043213454292914</v>
@@ -4960,9 +4984,9 @@
         <v>0.97707811920652576</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>0.058766930649100733</v>
+        <v>5.8766930649100733E-2</v>
       </c>
       <c r="B332">
         <v>0.88245888865840771</v>
@@ -4974,9 +4998,9 @@
         <v>0.97061653467544962</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>0.03151772919906095</v>
+        <v>3.151772919906095E-2</v>
       </c>
       <c r="B333">
         <v>0.9108471594151758</v>
@@ -4988,9 +5012,9 @@
         <v>0.98442120948809408</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>0.060434903684331603</v>
+        <v>6.0434903684331603E-2</v>
       </c>
       <c r="B334">
         <v>0.87903006117171678</v>
@@ -5002,9 +5026,9 @@
         <v>0.96978254815783416</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>0.017295965876663363</v>
+        <v>1.7295965876663363E-2</v>
       </c>
       <c r="B335">
         <v>0.90869973058116915</v>
@@ -5016,9 +5040,9 @@
         <v>0.99135201706166831</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>0.033191530271348572</v>
+        <v>3.3191530271348572E-2</v>
       </c>
       <c r="B336">
         <v>0.88353941182259055</v>
@@ -5030,9 +5054,9 @@
         <v>0.98468181435816082</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>0.045628621819098006</v>
+        <v>4.5628621819098006E-2</v>
       </c>
       <c r="B337">
         <v>0.86646158081597324</v>
@@ -5044,9 +5068,9 @@
         <v>0.977185689090451</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>0.047011874635000978</v>
+        <v>4.7011874635000978E-2</v>
       </c>
       <c r="B338">
         <v>0.87883874049076915</v>
@@ -5058,9 +5082,9 @@
         <v>0.97738831029783912</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>0.040240069193932873</v>
+        <v>4.0240069193932873E-2</v>
       </c>
       <c r="B339">
         <v>0.86693347191695935</v>
@@ -5072,9 +5096,9 @@
         <v>0.97987996540303368</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>0.053468994682410079</v>
+        <v>5.3468994682410079E-2</v>
       </c>
       <c r="B340">
         <v>0.86119697968392983</v>
@@ -5086,9 +5110,9 @@
         <v>0.97326550265879508</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>0.088180377818403405</v>
+        <v>8.8180377818403405E-2</v>
       </c>
       <c r="B341">
         <v>0.80861704118944377</v>
@@ -5100,9 +5124,9 @@
         <v>0.9559098110907982</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>0.090053113208027585</v>
+        <v>9.0053113208027585E-2</v>
       </c>
       <c r="B342">
         <v>0.7879570299102322</v>
@@ -5114,9 +5138,9 @@
         <v>0.95497344339598622</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>0.076921894612803243</v>
+        <v>7.6921894612803243E-2</v>
       </c>
       <c r="B343">
         <v>0.80270511842024317</v>
@@ -5128,9 +5152,9 @@
         <v>0.96153905269359852</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>0.08030491716668553</v>
+        <v>8.030491716668553E-2</v>
       </c>
       <c r="B344">
         <v>0.81604701065345386</v>
@@ -5142,9 +5166,9 @@
         <v>0.95984754141665729</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>0.042767596202197625</v>
+        <v>4.2767596202197625E-2</v>
       </c>
       <c r="B345">
         <v>0.75429546301416817</v>
@@ -5156,9 +5180,9 @@
         <v>0.97861620189890119</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>0.0032299820738036613</v>
+        <v>3.2299820738036613E-3</v>
       </c>
       <c r="B346">
         <v>0.45919327463193227</v>
@@ -5170,9 +5194,9 @@
         <v>0.99838500896309823</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>0.023035601290675813</v>
+        <v>2.3035601290675813E-2</v>
       </c>
       <c r="B347">
         <v>0.72719684885960734</v>
@@ -5184,9 +5208,9 @@
         <v>0.98848219935466219</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>0.030411501937697837</v>
+        <v>3.0411501937697837E-2</v>
       </c>
       <c r="B348">
         <v>0.73081073797587737</v>
@@ -5198,9 +5222,9 @@
         <v>0.98479424903115098</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>0.017144621993549269</v>
+        <v>1.7144621993549269E-2</v>
       </c>
       <c r="B349">
         <v>0.67805056666243912</v>
@@ -5212,9 +5236,9 @@
         <v>0.99175935057505571</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>0.0018134760638766133</v>
+        <v>1.8134760638766133E-3</v>
       </c>
       <c r="B350">
         <v>0.42152248461104097</v>
@@ -5226,9 +5250,9 @@
         <v>0.9990932619680617</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>0.00072661861989798933</v>
+        <v>7.2661861989798933E-4</v>
       </c>
       <c r="B351">
         <v>0.36664757312202323</v>
@@ -5240,9 +5264,9 @@
         <v>0.99963669069005101</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>0.001436657533816406</v>
+        <v>1.436657533816406E-3</v>
       </c>
       <c r="B352">
         <v>0.49974579165526656</v>
@@ -5254,9 +5278,9 @@
         <v>0.99928167123309186</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>0.0020973782771535584</v>
+        <v>2.0973782771535584E-3</v>
       </c>
       <c r="B353">
         <v>0.47830955294366007</v>
@@ -5268,9 +5292,9 @@
         <v>0.9989513108614233</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>0.00090080303941543179</v>
+        <v>9.0080303941543179E-4</v>
       </c>
       <c r="B354">
         <v>0.47174504767894226</v>
@@ -5282,9 +5306,9 @@
         <v>0.99954959848029235</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>0.00035952314157857893</v>
+        <v>3.5952314157857893E-4</v>
       </c>
       <c r="B355">
         <v>0.30523584102546003</v>
@@ -5296,9 +5320,9 @@
         <v>0.99982023842921075</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>0.0035849112299886189</v>
+        <v>3.5849112299886189E-3</v>
       </c>
       <c r="B356">
         <v>0.45415447593518748</v>
@@ -5310,9 +5334,9 @@
         <v>0.99820754438500559</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>0.015292191880836253</v>
+        <v>1.5292191880836253E-2</v>
       </c>
       <c r="B357">
         <v>0.60940795148787241</v>
@@ -5324,9 +5348,9 @@
         <v>0.9923539040595819</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>0.015751565339076287</v>
+        <v>1.5751565339076287E-2</v>
       </c>
       <c r="B358">
         <v>0.61440626806106036</v>
@@ -5338,9 +5362,9 @@
         <v>0.99212421733046186</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>0.0022132462789796934</v>
+        <v>2.2132462789796934E-3</v>
       </c>
       <c r="B359">
         <v>0.40135178057115783</v>
@@ -5352,9 +5376,9 @@
         <v>0.99889337686051016</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>0.001467924002415571</v>
+        <v>1.467924002415571E-3</v>
       </c>
       <c r="B360">
         <v>0.31035930348530988</v>
@@ -5366,9 +5390,9 @@
         <v>0.99926603799879221</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>0.031264157643188621</v>
+        <v>3.1264157643188621E-2</v>
       </c>
       <c r="B361">
         <v>0.89488907160377751</v>
@@ -5380,9 +5404,9 @@
         <v>0.98436792117840577</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>0.0041715294610527569</v>
+        <v>4.1715294610527569E-3</v>
       </c>
       <c r="B362">
         <v>0.91483764466280626</v>
@@ -5394,9 +5418,9 @@
         <v>0.99791423526947365</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>0.0059371165733358919</v>
+        <v>5.9371165733358919E-3</v>
       </c>
       <c r="B363">
         <v>0.9065026053016636</v>
@@ -5408,9 +5432,9 @@
         <v>0.99703144171333213</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>0.0074814828634862593</v>
+        <v>7.4814828634862593E-3</v>
       </c>
       <c r="B364">
         <v>0.92987524339911554</v>
@@ -5422,9 +5446,9 @@
         <v>0.99625925856825681</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>0.0073060240963855414</v>
+        <v>7.3060240963855414E-3</v>
       </c>
       <c r="B365">
         <v>0.89819393777213041</v>
@@ -5436,9 +5460,9 @@
         <v>0.99634698795180709</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>0.01413340091590096</v>
+        <v>1.413340091590096E-2</v>
       </c>
       <c r="B366">
         <v>0.86228048176097516</v>
@@ -5450,9 +5474,9 @@
         <v>0.99293329954204945</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>0.0043932987888228373</v>
+        <v>4.3932987888228373E-3</v>
       </c>
       <c r="B367">
         <v>0.91150592327594737</v>
@@ -5464,9 +5488,9 @@
         <v>0.99780335060558856</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>0.010779942400078939</v>
+        <v>1.0779942400078939E-2</v>
       </c>
       <c r="B368">
         <v>0.78006562256446754</v>
@@ -5478,9 +5502,9 @@
         <v>0.99461002879996052</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>0.0060778429883866199</v>
+        <v>6.0778429883866199E-3</v>
       </c>
       <c r="B369">
         <v>0.95614628600185747</v>
@@ -5492,9 +5516,9 @@
         <v>0.99696107850580673</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>0.0081002559529080378</v>
+        <v>8.1002559529080378E-3</v>
       </c>
       <c r="B370">
         <v>0.94744801253979472</v>
@@ -5506,9 +5530,9 @@
         <v>0.9959498720235459</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>0.012690964120769133</v>
+        <v>1.2690964120769133E-2</v>
       </c>
       <c r="B371">
         <v>0.91155279414825396</v>
@@ -5520,9 +5544,9 @@
         <v>0.99365451793961546</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>0.015419261731537966</v>
+        <v>1.5419261731537966E-2</v>
       </c>
       <c r="B372">
         <v>0.85386808299492267</v>
@@ -5534,9 +5558,9 @@
         <v>0.99229036913423097</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>0.032628846866889133</v>
+        <v>3.2628846866889133E-2</v>
       </c>
       <c r="B373">
         <v>0.81023060134931202</v>
@@ -5548,9 +5572,9 @@
         <v>0.98368557656655542</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>0.059613874719869384</v>
+        <v>5.9613874719869384E-2</v>
       </c>
       <c r="B374">
         <v>0.81755860008673753</v>
@@ -5562,9 +5586,9 @@
         <v>0.97019306264006522</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>0.018613806854980597</v>
+        <v>1.8613806854980597E-2</v>
       </c>
       <c r="B375">
         <v>0.91999918669307967</v>
@@ -5576,9 +5600,9 @@
         <v>0.9906930965725097</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>0.039171363047990362</v>
+        <v>3.9171363047990362E-2</v>
       </c>
       <c r="B376">
         <v>0.85601209399077671</v>
@@ -5590,9 +5614,9 @@
         <v>0.98049597588816484</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>0.030495552731893267</v>
+        <v>3.0495552731893267E-2</v>
       </c>
       <c r="B377">
         <v>0.85471448197127953</v>
@@ -5604,9 +5628,9 @@
         <v>0.98475222363405335</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>0.03447655378414366</v>
+        <v>3.447655378414366E-2</v>
       </c>
       <c r="B378">
         <v>0.87626072505226993</v>
@@ -5618,9 +5642,9 @@
         <v>0.98276172310792831</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>0.030172102472549346</v>
+        <v>3.0172102472549346E-2</v>
       </c>
       <c r="B379">
         <v>0.87662621443539235</v>
@@ -5632,9 +5656,9 @@
         <v>0.98491394876372551</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>0.0075623855664588863</v>
+        <v>7.5623855664588863E-3</v>
       </c>
       <c r="B380">
         <v>0.94399654009827061</v>
@@ -5646,9 +5670,9 @@
         <v>0.99621880721677059</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>0.031264157643188621</v>
+        <v>3.1264157643188621E-2</v>
       </c>
       <c r="B381">
         <v>0.89488907160377751</v>
@@ -5660,9 +5684,9 @@
         <v>0.98436792117840577</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>0.0041715294610527569</v>
+        <v>4.1715294610527569E-3</v>
       </c>
       <c r="B382">
         <v>0.91483764466280626</v>
@@ -5674,9 +5698,9 @@
         <v>0.99791423526947365</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>0.0059371165733358919</v>
+        <v>5.9371165733358919E-3</v>
       </c>
       <c r="B383">
         <v>0.9065026053016636</v>
@@ -5688,9 +5712,9 @@
         <v>0.99703144171333213</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>0.0074814828634862593</v>
+        <v>7.4814828634862593E-3</v>
       </c>
       <c r="B384">
         <v>0.92987524339911554</v>
@@ -5702,9 +5726,9 @@
         <v>0.99625925856825681</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>0.0073060240963855414</v>
+        <v>7.3060240963855414E-3</v>
       </c>
       <c r="B385">
         <v>0.89819393777213041</v>
@@ -5716,9 +5740,9 @@
         <v>0.99634698795180709</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>0.01413340091590096</v>
+        <v>1.413340091590096E-2</v>
       </c>
       <c r="B386">
         <v>0.86228048176097516</v>
@@ -5730,9 +5754,9 @@
         <v>0.99293329954204945</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387">
-        <v>0.0043932987888228373</v>
+        <v>4.3932987888228373E-3</v>
       </c>
       <c r="B387">
         <v>0.91150592327594737</v>
@@ -5744,9 +5768,9 @@
         <v>0.99780335060558856</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>0.010779942400078939</v>
+        <v>1.0779942400078939E-2</v>
       </c>
       <c r="B388">
         <v>0.78006562256446754</v>
@@ -5758,9 +5782,9 @@
         <v>0.99461002879996052</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>0.0060778429883866199</v>
+        <v>6.0778429883866199E-3</v>
       </c>
       <c r="B389">
         <v>0.95614628600185747</v>
@@ -5772,9 +5796,9 @@
         <v>0.99696107850580673</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>0.0081002559529080378</v>
+        <v>8.1002559529080378E-3</v>
       </c>
       <c r="B390">
         <v>0.94744801253979472</v>
@@ -5786,9 +5810,9 @@
         <v>0.9959498720235459</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>0.012690964120769133</v>
+        <v>1.2690964120769133E-2</v>
       </c>
       <c r="B391">
         <v>0.91155279414825396</v>
@@ -5800,9 +5824,9 @@
         <v>0.99365451793961546</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>0.015419261731537966</v>
+        <v>1.5419261731537966E-2</v>
       </c>
       <c r="B392">
         <v>0.85386808299492267</v>
@@ -5814,9 +5838,9 @@
         <v>0.99229036913423097</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>0.032628846866889133</v>
+        <v>3.2628846866889133E-2</v>
       </c>
       <c r="B393">
         <v>0.81023060134931202</v>
@@ -5828,9 +5852,9 @@
         <v>0.98368557656655542</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>0.059613874719869384</v>
+        <v>5.9613874719869384E-2</v>
       </c>
       <c r="B394">
         <v>0.81755860008673753</v>
@@ -5842,9 +5866,9 @@
         <v>0.97019306264006522</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>0.018613806854980597</v>
+        <v>1.8613806854980597E-2</v>
       </c>
       <c r="B395">
         <v>0.91999918669307967</v>
@@ -5856,9 +5880,9 @@
         <v>0.9906930965725097</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>0.039171363047990362</v>
+        <v>3.9171363047990362E-2</v>
       </c>
       <c r="B396">
         <v>0.85601209399077671</v>
@@ -5870,9 +5894,9 @@
         <v>0.98049597588816484</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>0.030495552731893267</v>
+        <v>3.0495552731893267E-2</v>
       </c>
       <c r="B397">
         <v>0.85471448197127953</v>
@@ -5884,9 +5908,9 @@
         <v>0.98475222363405335</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>0.03447655378414366</v>
+        <v>3.447655378414366E-2</v>
       </c>
       <c r="B398">
         <v>0.87626072505226993</v>
@@ -5898,9 +5922,9 @@
         <v>0.98276172310792831</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>0.030172102472549346</v>
+        <v>3.0172102472549346E-2</v>
       </c>
       <c r="B399">
         <v>0.87662621443539235</v>
@@ -5912,9 +5936,9 @@
         <v>0.98491394876372551</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>0.0075623855664588863</v>
+        <v>7.5623855664588863E-3</v>
       </c>
       <c r="B400">
         <v>0.94399654009827061</v>
